--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeachefr.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeachefr.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F2FE7-F1D8-4F10-A161-F56908B1313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62390458-DDC6-4E9F-A4F1-20647A8A352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19200" windowHeight="9140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9960" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="303">
   <si>
     <t>UserName</t>
   </si>
@@ -676,9 +676,6 @@
   </si>
   <si>
     <t>names</t>
-  </si>
-  <si>
-    <t>Description,Key Attributes,Carry Information,Specs,Reviews</t>
   </si>
   <si>
     <t>Atmos AG 65</t>
@@ -830,18 +827,12 @@
     <t>qatestingchefr@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve"> VIVA 65</t>
-  </si>
-  <si>
     <t>Chemin de Chorechalaz 1</t>
   </si>
   <si>
     <t>Chalais</t>
   </si>
   <si>
-    <t xml:space="preserve"> Wallis</t>
-  </si>
-  <si>
     <t>Via Franscini 146</t>
   </si>
   <si>
@@ -852,9 +843,6 @@
   </si>
   <si>
     <t>Wallis</t>
-  </si>
-  <si>
-    <t>TUNNEL VISION GREY</t>
   </si>
   <si>
     <t>ESCAPIST™ 25</t>
@@ -893,6 +881,87 @@
   </si>
   <si>
     <t>DALE GREY/POINSETTIA RED</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>87 Hungerbergstrasse</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Archeon 25</t>
+  </si>
+  <si>
+    <t>Haybale Green</t>
+  </si>
+  <si>
+    <t>Zürich</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>01 09 75 83 51</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>Kids Packs &amp; Carriers</t>
+  </si>
+  <si>
+    <t>Child Carriers</t>
+  </si>
+  <si>
+    <t>Poco® Carrying Case</t>
+  </si>
+  <si>
+    <t>Description,Key Attributes,Carry Information,Specs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sacs à dos et sacs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Packs plein air</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sacs à dos de backpacking</t>
+  </si>
+  <si>
+    <t>SimpleProduct</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>Informations du compte</t>
+  </si>
+  <si>
+    <t>Tunnel Vision Grey</t>
+  </si>
+  <si>
+    <t>8046</t>
+  </si>
+  <si>
+    <t>09898989898</t>
+  </si>
+  <si>
+    <t>Packs plein air</t>
+  </si>
+  <si>
+    <t>Sacs à dos de backpacking</t>
+  </si>
+  <si>
+    <t>skasarla@helenoftroy.com</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1069,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1019,6 +1088,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1033,7 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
@@ -1075,6 +1150,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1362,19 +1438,19 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1418,7 +1494,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1432,7 +1508,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1447,67 +1523,67 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="8"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" s="9"/>
       <c r="E22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
@@ -1528,12 +1604,12 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1571,7 +1647,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>182</v>
       </c>
@@ -1589,27 +1665,27 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3" s="10"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="H4" s="9"/>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="H5" s="10"/>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="H6" s="5"/>
     </row>
   </sheetData>
@@ -1620,30 +1696,30 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEDE721-2994-4A91-8C89-FADAE76105D8}">
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12.7265625" customWidth="1"/>
-    <col min="11" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1660,87 +1736,93 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE1" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
@@ -1753,116 +1835,126 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" t="s">
+      <c r="K2" s="2"/>
+      <c r="L2" t="s">
         <v>48</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>97</v>
       </c>
-      <c r="M2" t="s">
-        <v>260</v>
-      </c>
       <c r="N2" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="O2" t="s">
-        <v>266</v>
-      </c>
-      <c r="P2" s="5">
-        <v>3966</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="P2" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>8046</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE2" s="27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="R3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="S3" t="s">
-        <v>271</v>
-      </c>
-      <c r="T3" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="T3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>100</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE3" s="27"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
-      <c r="W4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="X4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE4" s="27"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="Y5" s="7" t="s">
+      <c r="Z5" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE5" s="27"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="Y6" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Z6" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>1234</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE6" s="27"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>110</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="Y7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Z7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE7" s="27"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>112</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="Y8" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="Z8" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE8" s="27"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1879,59 +1971,63 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" t="s">
         <v>47</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AE9" s="27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>47</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" t="s">
+      <c r="N10" s="2"/>
+      <c r="O10" t="s">
         <v>187</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>185</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>118</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="Y11" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Z11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -1941,17 +2037,17 @@
       <c r="D12" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="S12" s="5"/>
+      <c r="N12" s="2"/>
       <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>150</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
@@ -1964,36 +2060,37 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="L13" s="10"/>
+      <c r="K13" s="2"/>
       <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>152</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>48</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>97</v>
       </c>
-      <c r="M14" t="s">
-        <v>269</v>
-      </c>
       <c r="N14" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O14" t="s">
         <v>266</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q14" s="5">
         <v>5225</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="R14" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -2014,32 +2111,33 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" t="s">
+      <c r="K15" s="9"/>
+      <c r="L15" t="s">
         <v>48</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>97</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>161</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>162</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>163</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="Q15" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="R15" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="T15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="7"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="U15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="7"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>166</v>
       </c>
@@ -2060,108 +2158,113 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" t="s">
+      <c r="K16" s="9"/>
+      <c r="L16" t="s">
         <v>48</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>97</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>168</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>169</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>170</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="Q16" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="R16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>176</v>
       </c>
-      <c r="R17" t="s">
-        <v>273</v>
-      </c>
-      <c r="T17" s="5"/>
-      <c r="V17" s="5" t="s">
+      <c r="S17" t="s">
+        <v>269</v>
+      </c>
+      <c r="U17" s="5"/>
+      <c r="W17" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>193</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>202</v>
       </c>
       <c r="H19" t="s">
-        <v>227</v>
-      </c>
-      <c r="K19" t="s">
+        <v>226</v>
+      </c>
+      <c r="L19" t="s">
         <v>48</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>97</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>96</v>
       </c>
-      <c r="V20" s="5" t="s">
+      <c r="W20" s="5" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="J21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+      <c r="K21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>251</v>
-      </c>
-      <c r="AB23" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD23" t="s">
         <v>249</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2169,11 +2272,11 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C94C20D5-4494-4663-8D15-E3F04F8BA838}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{0F1A9542-CB17-4A46-B151-3CB4195FE686}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{3D6B96F7-7492-4831-BA08-1EC319F3C995}"/>
-    <hyperlink ref="C2" r:id="rId4" display="testersemail.278@gmail.com" xr:uid="{FF5CC51C-5AD9-4693-981E-E7B0E9E657C5}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{FF5CC51C-5AD9-4693-981E-E7B0E9E657C5}"/>
     <hyperlink ref="D9" r:id="rId5" xr:uid="{D61594FB-34B8-48FF-8601-E5E62BE99A50}"/>
     <hyperlink ref="C10" r:id="rId6" xr:uid="{5D1A5D25-CA74-4312-B274-A09F60758C65}"/>
     <hyperlink ref="C12" r:id="rId7" xr:uid="{05504D73-D67C-47D1-B503-0C5ECD72787A}"/>
-    <hyperlink ref="C13" r:id="rId8" display="testersemail.278@gmail.com" xr:uid="{2FD31558-C54F-4C20-BA79-E4495F4F8A25}"/>
+    <hyperlink ref="C13" r:id="rId8" xr:uid="{2FD31558-C54F-4C20-BA79-E4495F4F8A25}"/>
     <hyperlink ref="E13" r:id="rId9" xr:uid="{642BE6BD-6769-4684-BDF3-6EE93DC03E40}"/>
     <hyperlink ref="B15" r:id="rId10" xr:uid="{B56CD3AB-3EF7-427B-AEE9-EFCCB446AE2B}"/>
     <hyperlink ref="C15" r:id="rId11" xr:uid="{13574855-564B-42A8-BC07-0BB732D28542}"/>
@@ -2187,18 +2290,18 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E7098E-2E1A-4AB8-8B08-5146554B013B}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="16" max="16" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2218,57 +2321,60 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
@@ -2276,75 +2382,78 @@
       <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>48</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>97</v>
       </c>
-      <c r="O2" t="s">
-        <v>260</v>
-      </c>
       <c r="P2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q2" t="s">
-        <v>266</v>
-      </c>
-      <c r="R2" s="5">
+        <v>259</v>
+      </c>
+      <c r="R2" t="s">
+        <v>263</v>
+      </c>
+      <c r="S2" s="5">
         <v>3966</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>194</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="testersemail.278@gmail.com" xr:uid="{160FC2EC-B579-4630-B3F8-A6572DD8444B}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{160FC2EC-B579-4630-B3F8-A6572DD8444B}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{689CFFE8-A2FD-477A-BDDA-6FEDCCA33E12}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{67A946A5-81BA-41A9-857C-CDC37AB5048E}"/>
-    <hyperlink ref="C2" r:id="rId4" display="testersemail.278@gmail.com" xr:uid="{FB5EAAB9-C52B-4EAF-A731-722B1D0DA044}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{FB5EAAB9-C52B-4EAF-A731-722B1D0DA044}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2352,21 +2461,22 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7898D0-5E73-467F-9FF3-820055A67CA5}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:R3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="22" customWidth="1"/>
+    <col min="15" max="18" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2410,45 +2520,57 @@
         <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA1" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" t="s">
-        <v>258</v>
+        <v>302</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -2463,69 +2585,78 @@
         <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L2" s="5">
         <v>3966</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
       <c r="N3" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q3" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="R3" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="O3" t="s">
+        <v>269</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="S3" t="s">
-        <v>213</v>
-      </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" t="s">
+        <v>279</v>
+      </c>
+      <c r="V3" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="AA3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
       <c r="N4" t="s">
-        <v>273</v>
-      </c>
-      <c r="T4" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>219</v>
-      </c>
-      <c r="O6" t="s">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>292</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>291</v>
+      </c>
+      <c r="R6" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2533,6 +2664,8 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{0CE36D72-6013-4270-A662-87AEAB67E2D0}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{02BA2084-FF92-42BF-A90C-F04F26CFD4F6}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{537E2F57-8B47-44FD-B97C-D376E071DE88}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{6DCD2EAD-2CD0-46A7-8F8A-EE87D88F9735}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{46A8C866-AE68-4C92-9021-F1BC8A1C029E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2542,23 +2675,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCD1F99-1DD8-4522-8115-FEC633929F42}">
   <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2578,7 +2711,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -2641,15 +2774,18 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" t="s">
-        <v>258</v>
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>302</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -2664,13 +2800,13 @@
         <v>97</v>
       </c>
       <c r="J2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M2" s="5">
         <v>3966</v>
@@ -2679,15 +2815,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
       <c r="O3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>206</v>
@@ -2699,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -2710,16 +2846,16 @@
         <v>78</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H4" t="s">
         <v>131</v>
       </c>
       <c r="O4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Y4">
         <v>2</v>
@@ -2731,7 +2867,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -2745,12 +2881,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>140</v>
       </c>
       <c r="O6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="T6" s="5" t="s">
@@ -2759,9 +2895,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="testersemail.278@gmail.com" xr:uid="{1377E2BF-5BE2-491B-9DD8-1C8AE6432B10}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1377E2BF-5BE2-491B-9DD8-1C8AE6432B10}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{7CA905B4-86A6-471A-BAB1-EAEB4AF4B13E}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{2310A3FE-1A46-452B-8EEB-3EB00874F5AF}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{25D7BB35-45D3-4737-A5CB-93079C76D893}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2775,13 +2912,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2801,24 +2938,24 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>206</v>
@@ -2830,23 +2967,23 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>234</v>
       </c>
-      <c r="G3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>235</v>
-      </c>
       <c r="H4" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2863,13 +3000,13 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2877,17 +3014,17 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="9"/>
@@ -2904,27 +3041,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F874F6A8-C7CF-4364-8B77-324BEC617BCD}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2992,15 +3129,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>258</v>
+      <c r="B2" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>302</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -3015,13 +3155,13 @@
         <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L2" s="5">
         <v>3966</v>
@@ -3030,7 +3170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>141</v>
       </c>
@@ -3041,13 +3181,13 @@
         <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L3" s="5">
         <v>5225</v>
@@ -3056,7 +3196,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3076,7 +3216,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>142</v>
       </c>
@@ -3087,13 +3227,13 @@
         <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L5" s="5">
         <v>5225</v>
@@ -3102,7 +3242,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="180" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -3113,13 +3253,13 @@
         <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L6" s="5">
         <v>3966</v>
@@ -3128,10 +3268,10 @@
         <v>98</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N7" s="15"/>
     </row>
   </sheetData>
@@ -3140,6 +3280,7 @@
     <hyperlink ref="E2" r:id="rId2" xr:uid="{C5462365-DE7A-4954-A8D7-9DA1395CFD4E}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{229FDC1D-FCFA-4048-B757-737A25144119}"/>
     <hyperlink ref="D2" r:id="rId4" xr:uid="{C3C8F48B-D6A4-4E22-9974-BFC8AA4D856B}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{16ABAD7A-A574-465F-AB1D-9FC801611D18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3149,19 +3290,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06211CA8-2BEE-4E2D-A54D-369079A4DF3C}">
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3232,21 +3373,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>258</v>
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>302</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
+        <v>302</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
@@ -3255,13 +3399,13 @@
         <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L2" s="5">
         <v>3966</v>
@@ -3270,7 +3414,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -3292,6 +3436,8 @@
     <hyperlink ref="N3" r:id="rId1" xr:uid="{12BEB4BC-F92C-4411-A61C-7D4E57C587FB}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{B0191C0D-5E46-4C5C-B9BA-C5095D114274}"/>
     <hyperlink ref="D2" r:id="rId3" xr:uid="{D5CFC314-D480-4ED1-A8E8-5D3A5E8F45E1}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{E795E437-B0BA-41B0-9B62-B65870E1D903}"/>
+    <hyperlink ref="F2" r:id="rId5" xr:uid="{E5E329C5-67BC-4F76-8D17-F138AB45C222}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3299,27 +3445,29 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EA8A0A-8AB3-4C75-B640-7EA39F21ED70}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3375,23 +3523,30 @@
         <v>211</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
@@ -3406,13 +3561,13 @@
         <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K2" s="5">
         <v>3966</v>
@@ -3420,16 +3575,19 @@
       <c r="L2" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+    </row>
+    <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
       <c r="M3" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="N3" s="25" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>206</v>
@@ -3437,36 +3595,45 @@
       <c r="Q3" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
-      <c r="M4" t="s">
-        <v>273</v>
+      <c r="M4" s="27" t="s">
+        <v>289</v>
       </c>
       <c r="O4" s="5"/>
       <c r="Q4" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>207</v>
       </c>
       <c r="M6" s="26" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="O6" t="s">
         <v>209</v>
@@ -3474,32 +3641,47 @@
       <c r="Q6" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>210</v>
       </c>
-      <c r="R7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="R7" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S8" t="s">
         <v>37</v>
       </c>
       <c r="T8" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="V8" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="W8" s="27" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="testersemail.278@gmail.com" xr:uid="{9E3FD032-C6AC-464F-B6F4-79DE47DD24D5}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{9E3FD032-C6AC-464F-B6F4-79DE47DD24D5}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{8568B0DE-39BC-42D5-AED1-05BC73949943}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{021B95AC-270E-4027-A5DE-5D9320BB61DE}"/>
-    <hyperlink ref="C2" r:id="rId4" display="testersemail.278@gmail.com" xr:uid="{09CA81CF-EF0B-4ADF-B5D0-539181F5E366}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{09CA81CF-EF0B-4ADF-B5D0-539181F5E366}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3510,33 +3692,33 @@
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7265625" customWidth="1"/>
-    <col min="10" max="10" width="30.54296875" customWidth="1"/>
-    <col min="11" max="11" width="19.7265625" customWidth="1"/>
-    <col min="12" max="13" width="22.26953125" customWidth="1"/>
-    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="13" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.26953125" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3586,7 +3768,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3605,7 +3787,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -3616,7 +3798,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -3627,7 +3809,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -3638,7 +3820,7 @@
       <c r="P5" s="4"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -3649,7 +3831,7 @@
       <c r="P6" s="4"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3660,7 +3842,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -3670,54 +3852,54 @@
       <c r="I8" s="2"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D12" s="8"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="AD12" s="10"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R15" s="5"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="R16" s="5"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:29" x14ac:dyDescent="0.25">
       <c r="R17" s="5"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:29" x14ac:dyDescent="0.25">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="O18" s="5"/>
@@ -3727,21 +3909,21 @@
       <c r="S18" s="7"/>
       <c r="AC18" s="5"/>
     </row>
-    <row r="19" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:29" x14ac:dyDescent="0.25">
       <c r="R19" s="5"/>
       <c r="S19" s="7"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:29" x14ac:dyDescent="0.25">
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:29" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D22" s="9"/>
       <c r="E22" s="2"/>
       <c r="H22" s="2"/>
@@ -3749,17 +3931,17 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:29" x14ac:dyDescent="0.25">
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="26" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:29" x14ac:dyDescent="0.25">
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="4:29" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:29" x14ac:dyDescent="0.25">
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
@@ -3774,20 +3956,20 @@
   <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3855,15 +4037,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>258</v>
+        <v>302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>302</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -3874,12 +4059,12 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>49</v>
@@ -3887,8 +4072,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="tester111@gmail.com" xr:uid="{1D3B3FE6-27D3-496F-9F03-5C17AA0FA7EA}"/>
-    <hyperlink ref="D2" r:id="rId2" display="tester111@gmail.com" xr:uid="{281ED9C6-FF7B-4D70-AE52-81426CA12C54}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1D3B3FE6-27D3-496F-9F03-5C17AA0FA7EA}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{281ED9C6-FF7B-4D70-AE52-81426CA12C54}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{7EC7D96E-E275-4A12-8CA8-F0159DD3E15C}"/>
     <hyperlink ref="F2" r:id="rId4" xr:uid="{3DD52282-4D6A-44A0-BDEF-548D6590E929}"/>
     <hyperlink ref="B3" r:id="rId5" xr:uid="{9A8D58D8-06A0-4690-A5C6-9A9D4F59739D}"/>
@@ -3906,9 +4091,9 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3925,28 +4110,28 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
@@ -3970,7 +4155,7 @@
         <v>8</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>18</v>
@@ -4000,7 +4185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -4046,18 +4231,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="U3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V3" t="s">
         <v>208</v>
@@ -4072,7 +4257,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -4080,7 +4265,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -4094,7 +4279,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -4108,7 +4293,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -4122,7 +4307,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -4136,7 +4321,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -4163,7 +4348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>147</v>
       </c>
@@ -4178,7 +4363,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -4202,7 +4387,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -4228,19 +4413,19 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>176</v>
       </c>
       <c r="U13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W13" s="5"/>
       <c r="Y13" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>193</v>
       </c>
@@ -4248,12 +4433,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>202</v>
       </c>
       <c r="K15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N15" t="s">
         <v>48</v>
@@ -4265,7 +4450,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -4273,48 +4458,48 @@
         <v>204</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>241</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="J19" s="5" t="s">
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>244</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>92</v>
@@ -4327,39 +4512,39 @@
         <v>48</v>
       </c>
       <c r="AD20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="U21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="U23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>256</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U24" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>257</v>
-      </c>
-      <c r="U24" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4380,24 +4565,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6E5005-1842-4D3B-9DB5-D7120C934727}">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7265625" customWidth="1"/>
-    <col min="34" max="34" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" customWidth="1"/>
+    <col min="34" max="34" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4503,13 +4688,20 @@
       <c r="AI1" s="16" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="AJ1" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
@@ -4522,8 +4714,12 @@
       <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
@@ -4533,12 +4729,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>49</v>
@@ -4547,7 +4743,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -4562,7 +4758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -4579,7 +4775,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -4593,7 +4789,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -4610,10 +4806,10 @@
         <v>48</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>179</v>
       </c>
@@ -4623,8 +4819,11 @@
       <c r="G8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="AJ8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>198</v>
       </c>
@@ -4646,9 +4845,12 @@
     <hyperlink ref="D3" r:id="rId4" xr:uid="{3B85F8D3-74DD-414C-BA61-F7877DA41892}"/>
     <hyperlink ref="H5" r:id="rId5" xr:uid="{F4B63211-2D89-4210-9E1C-E738AAE2B58D}"/>
     <hyperlink ref="H6" r:id="rId6" xr:uid="{EED0BC21-E8D8-4D17-97F4-3F4AA11620B0}"/>
-    <hyperlink ref="H7" r:id="rId7" xr:uid="{87ED58F7-5945-4B79-8BE1-0C813ABED6B5}"/>
-    <hyperlink ref="D7" r:id="rId8" xr:uid="{C9A9CDB8-91B0-46BE-8A12-2FDDBBF3BF7C}"/>
-    <hyperlink ref="E7" r:id="rId9" xr:uid="{51D1907C-37D1-49DA-B85B-6663D2870AA6}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{C9A9CDB8-91B0-46BE-8A12-2FDDBBF3BF7C}"/>
+    <hyperlink ref="E7" r:id="rId8" xr:uid="{51D1907C-37D1-49DA-B85B-6663D2870AA6}"/>
+    <hyperlink ref="B2" r:id="rId9" xr:uid="{8CE4A472-7D6D-4523-B528-9447C4049F17}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{F080CC12-3DBD-4783-AE07-8535B4CF0C50}"/>
+    <hyperlink ref="H2" r:id="rId11" xr:uid="{6E29DCCE-4922-4A97-A343-67B813A14C98}"/>
+    <hyperlink ref="I2" r:id="rId12" xr:uid="{163848F2-E4D0-49FD-BBF2-BBB456DD474E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4662,12 +4864,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4690,7 +4892,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4710,28 +4912,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B006AB-898C-4D28-9BA9-3207EC054E17}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="25.1796875" customWidth="1"/>
-    <col min="16" max="16" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="139.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="25.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="139.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4802,16 +5004,16 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -4827,7 +5029,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -4836,32 +5038,32 @@
       </c>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
       <c r="S4" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>76</v>
       </c>
       <c r="V4" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>99</v>
       </c>
       <c r="U5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>152</v>
       </c>
@@ -4872,25 +5074,25 @@
         <v>97</v>
       </c>
       <c r="H6" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="I6" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="J6" t="s">
-        <v>262</v>
-      </c>
-      <c r="K6" s="5">
-        <v>3966</v>
+        <v>281</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>298</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>98</v>
+        <v>299</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -4901,25 +5103,25 @@
         <v>97</v>
       </c>
       <c r="H7" t="s">
+        <v>260</v>
+      </c>
+      <c r="I7" t="s">
+        <v>261</v>
+      </c>
+      <c r="J7" t="s">
         <v>263</v>
-      </c>
-      <c r="I7" t="s">
-        <v>264</v>
-      </c>
-      <c r="J7" t="s">
-        <v>266</v>
       </c>
       <c r="K7" s="5">
         <v>7014</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -4933,7 +5135,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>172</v>
       </c>
@@ -4947,17 +5149,17 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="U15" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{843128BB-35D6-4358-9D44-329F6CB813ED}"/>
     <hyperlink ref="P2" r:id="rId2" xr:uid="{BDEDD413-C2CC-486E-97A6-B386FE7C98AC}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{88A0D8CE-1A55-4F67-AEFF-7E5860B29E1C}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{8FC26F4D-A994-4BC5-9F70-905AE2CE7C0D}"/>
-    <hyperlink ref="P9" r:id="rId5" xr:uid="{9EAB716C-672A-4D26-B15D-2EC3D50724B4}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{36554E03-705C-4C37-BB24-9C9BB4D15F19}"/>
+    <hyperlink ref="B9" r:id="rId3" xr:uid="{8FC26F4D-A994-4BC5-9F70-905AE2CE7C0D}"/>
+    <hyperlink ref="P9" r:id="rId4" xr:uid="{9EAB716C-672A-4D26-B15D-2EC3D50724B4}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{36554E03-705C-4C37-BB24-9C9BB4D15F19}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{DBDFEDBC-64CA-4A3D-A9B2-22F6EBA2746E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4967,20 +5169,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D56D866-0838-4389-BEAC-1AD5D20E3682}">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5051,12 +5253,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" t="s">
@@ -5073,10 +5275,10 @@
         <v>79</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N2">
         <v>10</v>
@@ -5097,12 +5299,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="10"/>
       <c r="E3" t="s">
@@ -5119,10 +5321,10 @@
         <v>85</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N3">
         <v>10</v>
@@ -5144,12 +5346,12 @@
       </c>
       <c r="W3" s="9"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C4" s="10"/>
       <c r="E4" t="s">
@@ -5166,7 +5368,7 @@
         <v>88</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>76</v>
@@ -5193,7 +5395,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -5217,7 +5419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -5225,7 +5427,7 @@
         <v>76</v>
       </c>
       <c r="U6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="V6" t="s">
         <v>208</v>
@@ -5234,7 +5436,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -5262,30 +5464,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C3B71FA-952C-4393-A60E-BE3FF535DCA5}">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="22" customWidth="1"/>
-    <col min="20" max="20" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5323,10 +5525,10 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>15</v>
@@ -5356,12 +5558,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -5377,13 +5579,13 @@
         <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K2" s="5">
         <v>3966</v>
@@ -5394,15 +5596,15 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
       <c r="O3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P3" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>206</v>
@@ -5414,7 +5616,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -5422,7 +5624,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>112</v>
       </c>
@@ -5436,7 +5638,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -5456,10 +5658,10 @@
       </c>
       <c r="K6" s="5"/>
       <c r="O6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -5470,13 +5672,13 @@
         <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="I7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K7" s="5">
         <v>5225</v>
@@ -5487,29 +5689,29 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>176</v>
       </c>
       <c r="O8" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N10" s="24"/>
     </row>
   </sheetData>
@@ -5530,21 +5732,21 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5570,7 +5772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -5584,23 +5786,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -5608,14 +5810,14 @@
         <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H9" s="9"/>
     </row>
   </sheetData>
@@ -5633,19 +5835,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78743B9F-A0B2-4E90-8EF7-F32481FF0BE0}">
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="60.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5680,10 +5882,10 @@
         <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -5705,16 +5907,18 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>302</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>49</v>
@@ -5727,7 +5931,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -5737,14 +5941,14 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4">
@@ -5756,7 +5960,7 @@
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -5764,10 +5968,10 @@
         <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>206</v>
@@ -5779,29 +5983,29 @@
       <c r="P5" s="4"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5809,8 +6013,9 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{36782FEE-0F96-4EAF-A2B3-3C5F45666C73}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{42D93E3C-23A9-4B18-ADAB-FB90D832606D}"/>
     <hyperlink ref="E2" r:id="rId3" xr:uid="{AD1B92CD-F487-4ED4-A1A8-19F69C45AFDF}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{515B2F71-69C5-413D-B19F-81843FE52FA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeachefr.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeachefr.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62390458-DDC6-4E9F-A4F1-20647A8A352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB899727-6B78-492A-9911-959D4CAD0B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9960" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="900" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="304">
   <si>
     <t>UserName</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t>skasarla@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>One Size</t>
   </si>
 </sst>
 </file>
@@ -1698,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEDE721-2994-4A91-8C89-FADAE76105D8}">
   <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1875,7 +1878,7 @@
         <v>280</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>206</v>
+        <v>303</v>
       </c>
       <c r="V3" t="s">
         <v>100</v>
@@ -4912,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B006AB-898C-4D28-9BA9-3207EC054E17}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,7 +5055,7 @@
         <v>297</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>206</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">

--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeachefr.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeachefr.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB899727-6B78-492A-9911-959D4CAD0B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{62390458-DDC6-4E9F-A4F1-20647A8A352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CD6403C-4536-4D2C-AD94-788E3CADA5E4}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="900" windowWidth="21600" windowHeight="11385" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19200" windowHeight="9140" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -237,9 +237,6 @@
     <t>Prod Account Links</t>
   </si>
   <si>
-    <t>My Orders,My Favorites,Address Book,Account Information,Gift Registry,Stored Payment Methods,Newsletter Subscriptions,My Trade-In Forms,Reward Points,Pro Deal</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -964,7 +961,10 @@
     <t>skasarla@helenoftroy.com</t>
   </si>
   <si>
-    <t>One Size</t>
+    <t>spanem@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>Mes commandes,Mes favoris,Carnet d'adresses,Informations du compte,Modes de paiement enregistrés,Crédit du magasin,Points de fidélité,Liste de cadeaux,Mes abonnements en rupture de stock,Abonnements à la newsletter,Cartes-cadeaux,Pro Deal</t>
   </si>
 </sst>
 </file>
@@ -1441,19 +1441,19 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1485,19 +1485,19 @@
         <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1511,82 +1511,82 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2"/>
       <c r="K3" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M3" t="s">
         <v>47</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D12" s="8"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E21" s="2"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" s="9"/>
       <c r="E22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
@@ -1607,17 +1607,17 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1650,12 +1650,12 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1668,27 +1668,27 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="B3" s="10"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="H4" s="9"/>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H5" s="10"/>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H6" s="5"/>
     </row>
   </sheetData>
@@ -1702,27 +1702,27 @@
   <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="12.7265625" customWidth="1"/>
+    <col min="12" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1739,22 +1739,22 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -1784,7 +1784,7 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>17</v>
@@ -1808,16 +1808,16 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="AE1" s="27" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1843,121 +1843,121 @@
         <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N2" t="s">
+        <v>276</v>
+      </c>
+      <c r="O2" t="s">
         <v>277</v>
       </c>
-      <c r="O2" t="s">
-        <v>278</v>
-      </c>
       <c r="P2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q2" s="5">
         <v>8046</v>
       </c>
       <c r="R2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE2" s="27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="S3" t="s">
+        <v>278</v>
+      </c>
+      <c r="T3" t="s">
+        <v>279</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="V3" t="s">
+        <v>99</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" s="27"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>98</v>
       </c>
-      <c r="AE2" s="27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="S3" t="s">
-        <v>279</v>
-      </c>
-      <c r="T3" t="s">
-        <v>280</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="V3" t="s">
-        <v>100</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE3" s="27"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
       <c r="X4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AE4" s="27"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="AA5">
         <v>123</v>
       </c>
       <c r="AE5" s="27"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="Y6" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="Z6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA6">
         <v>1234</v>
       </c>
       <c r="AE6" s="27"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="Y7" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="Z7" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA7">
         <v>123</v>
       </c>
       <c r="AE7" s="27"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="Y8" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="Z8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA8">
         <v>123</v>
       </c>
       <c r="AE8" s="27"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -1982,81 +1982,81 @@
         <v>48</v>
       </c>
       <c r="AE9" s="27" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L10" t="s">
         <v>47</v>
       </c>
       <c r="M10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="P10" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="R10" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="Y11" s="5" t="s">
+      <c r="Z11" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="AA11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2067,41 +2067,41 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s">
         <v>48</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N14" t="s">
+        <v>264</v>
+      </c>
+      <c r="O14" t="s">
         <v>265</v>
       </c>
-      <c r="O14" t="s">
-        <v>266</v>
-      </c>
       <c r="P14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q14" s="5">
         <v>5225</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>49</v>
@@ -2119,36 +2119,36 @@
         <v>48</v>
       </c>
       <c r="M15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" t="s">
+        <v>161</v>
+      </c>
+      <c r="P15" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="R15" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="N15" t="s">
-        <v>161</v>
-      </c>
-      <c r="O15" t="s">
-        <v>162</v>
-      </c>
-      <c r="P15" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="U15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="7"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>167</v>
-      </c>
       <c r="C16" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>49</v>
@@ -2166,108 +2166,108 @@
         <v>48</v>
       </c>
       <c r="M16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" t="s">
+        <v>167</v>
+      </c>
+      <c r="O16" t="s">
+        <v>168</v>
+      </c>
+      <c r="P16" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="R16" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N16" t="s">
-        <v>168</v>
-      </c>
-      <c r="O16" t="s">
-        <v>169</v>
-      </c>
-      <c r="P16" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="S17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U17" s="5"/>
       <c r="W17" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
         <v>193</v>
       </c>
-      <c r="X18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s">
         <v>48</v>
       </c>
       <c r="M19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="W20" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F21" t="s">
+        <v>299</v>
+      </c>
+      <c r="J21" t="s">
+        <v>290</v>
+      </c>
+      <c r="K21" t="s">
         <v>300</v>
       </c>
-      <c r="J21" t="s">
-        <v>291</v>
-      </c>
-      <c r="K21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AC23" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD23" t="s">
         <v>248</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -2299,12 +2299,12 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2324,13 +2324,13 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -2369,15 +2369,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
@@ -2389,66 +2389,66 @@
         <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P2" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q2" t="s">
         <v>258</v>
       </c>
-      <c r="Q2" t="s">
-        <v>259</v>
-      </c>
       <c r="R2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S2" s="5">
         <v>3966</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" t="s">
         <v>300</v>
       </c>
-      <c r="H4" t="s">
-        <v>301</v>
-      </c>
       <c r="I4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L5">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2470,16 +2470,16 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2523,22 +2523,22 @@
         <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -2559,21 +2559,21 @@
         <v>10</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -2585,81 +2585,81 @@
         <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" t="s">
         <v>258</v>
       </c>
-      <c r="J2" t="s">
-        <v>259</v>
-      </c>
       <c r="K2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L2" s="5">
         <v>3966</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s">
+        <v>278</v>
+      </c>
+      <c r="O3" t="s">
+        <v>268</v>
+      </c>
+      <c r="S3" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="O3" t="s">
-        <v>269</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>280</v>
-      </c>
       <c r="T3" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P6" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>290</v>
+      </c>
+      <c r="R6" t="s">
         <v>292</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>291</v>
-      </c>
-      <c r="R6" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2682,19 +2682,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -2744,10 +2744,10 @@
         <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
@@ -2768,27 +2768,27 @@
         <v>10</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -2800,100 +2800,100 @@
         <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K2" t="s">
         <v>258</v>
       </c>
-      <c r="K2" t="s">
-        <v>259</v>
-      </c>
       <c r="L2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M2" s="5">
         <v>3966</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
         <v>129</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="H4" t="s">
-        <v>131</v>
-      </c>
       <c r="O4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Y4">
         <v>2</v>
       </c>
       <c r="Z4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA4" t="s">
         <v>132</v>
       </c>
-      <c r="AA4" t="s">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
         <v>134</v>
       </c>
-      <c r="D5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s">
-        <v>135</v>
-      </c>
       <c r="R5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="T6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2915,13 +2915,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>17</v>
@@ -2941,52 +2941,52 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>233</v>
       </c>
-      <c r="G3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>234</v>
-      </c>
       <c r="H4" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3003,13 +3003,13 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3017,17 +3017,17 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="9"/>
@@ -3048,23 +3048,23 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3105,13 +3105,13 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
@@ -3132,18 +3132,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -3155,51 +3155,51 @@
         <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" t="s">
         <v>258</v>
       </c>
-      <c r="J2" t="s">
-        <v>259</v>
-      </c>
       <c r="K2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L2" s="5">
         <v>3966</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
         <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
+        <v>264</v>
+      </c>
+      <c r="J3" t="s">
         <v>265</v>
       </c>
-      <c r="J3" t="s">
-        <v>266</v>
-      </c>
       <c r="K3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L3" s="5">
         <v>5225</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3216,65 +3216,65 @@
         <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
         <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
+        <v>264</v>
+      </c>
+      <c r="J5" t="s">
         <v>265</v>
       </c>
-      <c r="J5" t="s">
-        <v>266</v>
-      </c>
       <c r="K5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L5" s="5">
         <v>5225</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="180" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G6" t="s">
         <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
+        <v>257</v>
+      </c>
+      <c r="J6" t="s">
         <v>258</v>
       </c>
-      <c r="J6" t="s">
-        <v>259</v>
-      </c>
       <c r="K6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L6" s="5">
         <v>3966</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="N7" s="15"/>
     </row>
   </sheetData>
@@ -3297,15 +3297,15 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>15</v>
@@ -3355,7 +3355,7 @@
         <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
@@ -3376,18 +3376,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -3399,36 +3399,36 @@
         <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" t="s">
         <v>258</v>
       </c>
-      <c r="J2" t="s">
-        <v>259</v>
-      </c>
       <c r="K2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L2" s="5">
         <v>3966</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -3454,23 +3454,23 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="50.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>17</v>
@@ -3523,33 +3523,33 @@
         <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
@@ -3561,122 +3561,122 @@
         <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" t="s">
         <v>258</v>
       </c>
-      <c r="I2" t="s">
-        <v>259</v>
-      </c>
       <c r="J2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K2" s="5">
         <v>3966</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U2" s="27"/>
       <c r="V2" s="27"/>
       <c r="W2" s="27"/>
     </row>
-    <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s">
+        <v>278</v>
+      </c>
+      <c r="N3" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>280</v>
-      </c>
       <c r="O3" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U3" s="27"/>
       <c r="V3" s="27"/>
       <c r="W3" s="27"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O4" s="5"/>
       <c r="Q4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U4" s="27"/>
       <c r="V4" s="27"/>
       <c r="W4" s="27"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="U5" s="27"/>
       <c r="V5" s="27"/>
       <c r="W5" s="27"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M6" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="O6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U6" s="27"/>
       <c r="V6" s="27"/>
       <c r="W6" s="27"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
       <c r="W7" s="27"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S8" t="s">
         <v>37</v>
       </c>
       <c r="T8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="V8" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="W8" s="27" t="s">
         <v>287</v>
-      </c>
-      <c r="W8" s="27" t="s">
-        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3698,30 +3698,30 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="13" width="22.28515625" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" customWidth="1"/>
+    <col min="2" max="2" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="30.7265625" customWidth="1"/>
+    <col min="10" max="10" width="30.54296875" customWidth="1"/>
+    <col min="11" max="11" width="19.7265625" customWidth="1"/>
+    <col min="12" max="13" width="22.26953125" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.54296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.26953125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3771,12 +3771,12 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2"/>
       <c r="H2" s="2"/>
@@ -3790,51 +3790,51 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2"/>
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E4" s="2"/>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="4"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -3845,7 +3845,7 @@
       <c r="P7" s="4"/>
       <c r="V7" s="5"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -3855,54 +3855,54 @@
       <c r="I8" s="2"/>
       <c r="V8" s="5"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="V9" s="5"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="V10" s="5"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="V11" s="5"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D12" s="8"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="AD12" s="10"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="V13" s="5"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="R15" s="5"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="R16" s="5"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:29" x14ac:dyDescent="0.35">
       <c r="R17" s="5"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:29" x14ac:dyDescent="0.35">
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="O18" s="5"/>
@@ -3912,21 +3912,21 @@
       <c r="S18" s="7"/>
       <c r="AC18" s="5"/>
     </row>
-    <row r="19" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:29" x14ac:dyDescent="0.35">
       <c r="R19" s="5"/>
       <c r="S19" s="7"/>
       <c r="T19" s="5"/>
     </row>
-    <row r="20" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:29" x14ac:dyDescent="0.35">
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:29" x14ac:dyDescent="0.35">
       <c r="E21" s="2"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:29" x14ac:dyDescent="0.35">
       <c r="D22" s="9"/>
       <c r="E22" s="2"/>
       <c r="H22" s="2"/>
@@ -3934,17 +3934,17 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:29" x14ac:dyDescent="0.35">
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="26" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:29" x14ac:dyDescent="0.35">
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="M26" s="5"/>
     </row>
-    <row r="27" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:29" x14ac:dyDescent="0.35">
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
@@ -3962,17 +3962,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4013,13 +4013,13 @@
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>17</v>
@@ -4040,18 +4040,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -4062,12 +4062,12 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>49</v>
@@ -4094,9 +4094,9 @@
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4113,28 +4113,28 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
@@ -4158,13 +4158,13 @@
         <v>8</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>17</v>
@@ -4188,7 +4188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -4216,115 +4216,115 @@
         <v>48</v>
       </c>
       <c r="O2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>186</v>
+      </c>
+      <c r="R2" t="s">
+        <v>184</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="P2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>187</v>
-      </c>
-      <c r="R2" t="s">
-        <v>185</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="U3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA5" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AB5" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="AC5">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="AA6" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="AB6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC6">
         <v>1234</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AA7" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="AB7" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC7">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AA8" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="AB8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC8">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -4351,24 +4351,24 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>53</v>
@@ -4377,7 +4377,7 @@
         <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -4390,164 +4390,164 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N12" t="s">
         <v>48</v>
       </c>
       <c r="O12" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>189</v>
+      </c>
+      <c r="R12" t="s">
+        <v>190</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="T12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="P12" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>190</v>
-      </c>
-      <c r="R12" t="s">
-        <v>191</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W13" s="5"/>
       <c r="Y13" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z14" t="s">
         <v>193</v>
       </c>
-      <c r="Z14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N15" t="s">
         <v>48</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y16" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="J19" s="5" t="s">
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>243</v>
-      </c>
       <c r="C20" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J20" s="5"/>
       <c r="N20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O20" t="s">
         <v>48</v>
       </c>
       <c r="AD20" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="U21" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="U23" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>255</v>
       </c>
-      <c r="U23" t="s">
+      <c r="U24" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>256</v>
-      </c>
-      <c r="U24" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4574,18 +4574,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7265625" customWidth="1"/>
+    <col min="34" max="34" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4683,27 +4683,27 @@
         <v>26</v>
       </c>
       <c r="AG1" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH1" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="AI1" s="16" t="s">
-        <v>197</v>
-      </c>
       <c r="AJ1" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
@@ -4718,10 +4718,10 @@
         <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J2" s="2"/>
       <c r="O2" s="5"/>
@@ -4732,12 +4732,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>49</v>
@@ -4746,7 +4746,7 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -4792,9 +4792,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>49</v>
@@ -4803,41 +4803,41 @@
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
         <v>48</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" ht="105" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG9" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="AG9" s="15" t="s">
+      <c r="AH9" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="AH9" s="15" t="s">
+      <c r="AI9" s="18" t="s">
         <v>200</v>
-      </c>
-      <c r="AI9" s="18" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4867,12 +4867,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -4915,28 +4915,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B006AB-898C-4D28-9BA9-3207EC054E17}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="25.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="139.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="25.1796875" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="139.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.54296875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>30</v>
@@ -5004,10 +5004,10 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -5032,127 +5032,127 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" t="s">
-        <v>65</v>
+      <c r="Q3" s="15" t="s">
+        <v>303</v>
       </c>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I6" t="s">
         <v>277</v>
       </c>
-      <c r="I6" t="s">
-        <v>278</v>
-      </c>
       <c r="J6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>298</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>299</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
+        <v>259</v>
+      </c>
+      <c r="I7" t="s">
         <v>260</v>
       </c>
-      <c r="I7" t="s">
-        <v>261</v>
-      </c>
       <c r="J7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K7" s="5">
         <v>7014</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>113</v>
-      </c>
       <c r="N8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="P9" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="U15" s="9"/>
     </row>
   </sheetData>
@@ -5176,16 +5176,16 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -5223,28 +5223,28 @@
         <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="R1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="U1" s="11" t="s">
         <v>15</v>
@@ -5253,198 +5253,198 @@
         <v>18</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N2">
         <v>10</v>
       </c>
       <c r="O2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" t="s">
         <v>80</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" t="s">
         <v>82</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>83</v>
       </c>
-      <c r="S2" t="s">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
       <c r="B3" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" s="10"/>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N3">
         <v>10</v>
       </c>
       <c r="O3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" t="s">
         <v>86</v>
       </c>
-      <c r="P3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="R3" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="W3" s="9"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>87</v>
       </c>
-      <c r="W3" s="9"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
       <c r="B4" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C4" s="10"/>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N4">
         <v>10</v>
       </c>
       <c r="O4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" t="s">
+        <v>82</v>
+      </c>
+      <c r="S4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" t="s">
         <v>89</v>
       </c>
-      <c r="P4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="R4" t="s">
-        <v>83</v>
-      </c>
-      <c r="S4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T4" t="s">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="C5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="10"/>
       <c r="K5" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="U6" t="s">
+        <v>263</v>
+      </c>
+      <c r="V6" t="s">
+        <v>207</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="U6" t="s">
-        <v>264</v>
-      </c>
-      <c r="V6" t="s">
-        <v>208</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5471,26 +5471,26 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="22" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5528,10 +5528,10 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>15</v>
@@ -5540,7 +5540,7 @@
         <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
@@ -5561,12 +5561,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -5579,69 +5579,69 @@
         <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" t="s">
         <v>258</v>
       </c>
-      <c r="I2" t="s">
-        <v>259</v>
-      </c>
       <c r="J2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K2" s="5">
         <v>3966</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="U5" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="W5" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -5657,64 +5657,64 @@
         <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" s="5"/>
       <c r="O6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I7" t="s">
         <v>265</v>
       </c>
-      <c r="I7" t="s">
-        <v>266</v>
-      </c>
       <c r="J7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K7" s="5">
         <v>5225</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O8" t="s">
+        <v>268</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>217</v>
+      </c>
+      <c r="M9" t="s">
         <v>269</v>
       </c>
-      <c r="S8" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>218</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="N9" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="N9" s="23" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="N10" s="24"/>
     </row>
   </sheetData>
@@ -5738,18 +5738,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -5789,38 +5789,38 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H9" s="9"/>
     </row>
   </sheetData>
@@ -5842,15 +5842,15 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5873,22 +5873,22 @@
         <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -5910,18 +5910,18 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>49</v>
@@ -5934,7 +5934,7 @@
       <c r="R2" s="5"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -5944,71 +5944,71 @@
       <c r="R3" s="5"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="K5" t="s">
         <v>103</v>
-      </c>
-      <c r="D5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
       </c>
       <c r="O5" s="3"/>
       <c r="P5" s="4"/>
       <c r="V5" s="5"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeachefr.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeachefr.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{62390458-DDC6-4E9F-A4F1-20647A8A352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CD6403C-4536-4D2C-AD94-788E3CADA5E4}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{62390458-DDC6-4E9F-A4F1-20647A8A352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81ADD2D9-B973-41D8-A48E-499F9F58C209}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19200" windowHeight="9140" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,9 +564,6 @@
     <t>unregisterd Username</t>
   </si>
   <si>
-    <t>Testers.278+5698@gmail.com</t>
-  </si>
-  <si>
     <t>Simple product</t>
   </si>
   <si>
@@ -965,6 +962,9 @@
   </si>
   <si>
     <t>Mes commandes,Mes favoris,Carnet d'adresses,Informations du compte,Modes de paiement enregistrés,Crédit du magasin,Points de fidélité,Liste de cadeaux,Mes abonnements en rupture de stock,Abonnements à la newsletter,Cartes-cadeaux,Pro Deal</t>
+  </si>
+  <si>
+    <t>Testers.278+568@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1170,6 +1170,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1617,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1652,10 +1656,10 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1739,22 +1743,22 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
@@ -1808,13 +1812,13 @@
         <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="AE1" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.35">
@@ -1822,10 +1826,10 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
@@ -1846,13 +1850,13 @@
         <v>96</v>
       </c>
       <c r="N2" t="s">
+        <v>275</v>
+      </c>
+      <c r="O2" t="s">
         <v>276</v>
       </c>
-      <c r="O2" t="s">
-        <v>277</v>
-      </c>
       <c r="P2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q2" s="5">
         <v>8046</v>
@@ -1861,7 +1865,7 @@
         <v>97</v>
       </c>
       <c r="AE2" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -1869,16 +1873,16 @@
         <v>93</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T3" t="s">
         <v>278</v>
       </c>
-      <c r="T3" t="s">
-        <v>279</v>
-      </c>
       <c r="U3" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="V3" t="s">
         <v>99</v>
@@ -1893,7 +1897,7 @@
         <v>98</v>
       </c>
       <c r="X4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AE4" s="27"/>
     </row>
@@ -1982,7 +1986,7 @@
         <v>48</v>
       </c>
       <c r="AE9" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
@@ -2000,13 +2004,13 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="P10" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>115</v>
@@ -2050,7 +2054,7 @@
         <v>149</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
@@ -2078,13 +2082,13 @@
         <v>96</v>
       </c>
       <c r="N14" t="s">
+        <v>263</v>
+      </c>
+      <c r="O14" t="s">
         <v>264</v>
       </c>
-      <c r="O14" t="s">
-        <v>265</v>
-      </c>
       <c r="P14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="5">
         <v>5225</v>
@@ -2187,10 +2191,10 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="S17" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="U17" s="5"/>
       <c r="W17" s="5" t="s">
@@ -2199,18 +2203,18 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>191</v>
+      </c>
+      <c r="X18" t="s">
         <v>192</v>
-      </c>
-      <c r="X18" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L19" t="s">
         <v>48</v>
@@ -2219,7 +2223,7 @@
         <v>96</v>
       </c>
       <c r="AB19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
@@ -2227,47 +2231,47 @@
         <v>95</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F21" t="s">
+        <v>298</v>
+      </c>
+      <c r="J21" t="s">
+        <v>289</v>
+      </c>
+      <c r="K21" t="s">
         <v>299</v>
-      </c>
-      <c r="J21" t="s">
-        <v>290</v>
-      </c>
-      <c r="K21" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AC23" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD23" t="s">
         <v>247</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2324,13 +2328,13 @@
         <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -2374,10 +2378,10 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
@@ -2392,13 +2396,13 @@
         <v>96</v>
       </c>
       <c r="P2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q2" t="s">
         <v>257</v>
       </c>
-      <c r="Q2" t="s">
-        <v>258</v>
-      </c>
       <c r="R2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="S2" s="5">
         <v>3966</v>
@@ -2412,21 +2416,21 @@
         <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" t="s">
         <v>299</v>
       </c>
-      <c r="H4" t="s">
-        <v>300</v>
-      </c>
       <c r="I4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -2448,7 +2452,7 @@
         <v>98</v>
       </c>
       <c r="U6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2523,16 +2527,16 @@
         <v>15</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
@@ -2559,7 +2563,7 @@
         <v>10</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
@@ -2567,13 +2571,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -2588,19 +2592,19 @@
         <v>96</v>
       </c>
       <c r="I2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J2" t="s">
         <v>257</v>
       </c>
-      <c r="J2" t="s">
-        <v>258</v>
-      </c>
       <c r="K2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L2" s="5">
         <v>3966</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
@@ -2608,33 +2612,33 @@
         <v>93</v>
       </c>
       <c r="N3" t="s">
+        <v>277</v>
+      </c>
+      <c r="O3" t="s">
+        <v>267</v>
+      </c>
+      <c r="S3" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="O3" t="s">
-        <v>268</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>279</v>
-      </c>
       <c r="T3" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="V3" s="5" t="s">
         <v>75</v>
       </c>
       <c r="AA3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>75</v>
@@ -2650,16 +2654,16 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P6" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>289</v>
+      </c>
+      <c r="R6" t="s">
         <v>291</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>290</v>
-      </c>
-      <c r="R6" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2714,7 +2718,7 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -2782,13 +2786,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -2803,13 +2807,13 @@
         <v>96</v>
       </c>
       <c r="J2" t="s">
+        <v>256</v>
+      </c>
+      <c r="K2" t="s">
         <v>257</v>
       </c>
-      <c r="K2" t="s">
-        <v>258</v>
-      </c>
       <c r="L2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M2" s="5">
         <v>3966</v>
@@ -2823,13 +2827,13 @@
         <v>93</v>
       </c>
       <c r="O3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S3" t="s">
         <v>99</v>
@@ -2849,16 +2853,16 @@
         <v>77</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H4" t="s">
         <v>130</v>
       </c>
       <c r="O4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Y4">
         <v>2</v>
@@ -2889,7 +2893,7 @@
         <v>139</v>
       </c>
       <c r="O6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="9"/>
       <c r="T6" s="5" t="s">
@@ -2941,13 +2945,13 @@
         <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2955,13 +2959,13 @@
         <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
         <v>99</v>
@@ -2972,21 +2976,21 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3017,7 +3021,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -3027,7 +3031,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="9"/>
@@ -3137,13 +3141,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -3158,13 +3162,13 @@
         <v>96</v>
       </c>
       <c r="I2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J2" t="s">
         <v>257</v>
       </c>
-      <c r="J2" t="s">
-        <v>258</v>
-      </c>
       <c r="K2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L2" s="5">
         <v>3966</v>
@@ -3184,13 +3188,13 @@
         <v>96</v>
       </c>
       <c r="I3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" t="s">
         <v>264</v>
       </c>
-      <c r="J3" t="s">
-        <v>265</v>
-      </c>
       <c r="K3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L3" s="5">
         <v>5225</v>
@@ -3230,13 +3234,13 @@
         <v>96</v>
       </c>
       <c r="I5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J5" t="s">
         <v>264</v>
       </c>
-      <c r="J5" t="s">
-        <v>265</v>
-      </c>
       <c r="K5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L5" s="5">
         <v>5225</v>
@@ -3256,13 +3260,13 @@
         <v>96</v>
       </c>
       <c r="I6" t="s">
+        <v>256</v>
+      </c>
+      <c r="J6" t="s">
         <v>257</v>
       </c>
-      <c r="J6" t="s">
-        <v>258</v>
-      </c>
       <c r="K6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L6" s="5">
         <v>3966</v>
@@ -3271,7 +3275,7 @@
         <v>97</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
@@ -3381,13 +3385,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -3402,13 +3406,13 @@
         <v>96</v>
       </c>
       <c r="I2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J2" t="s">
         <v>257</v>
       </c>
-      <c r="J2" t="s">
-        <v>258</v>
-      </c>
       <c r="K2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L2" s="5">
         <v>3966</v>
@@ -3425,10 +3429,10 @@
         <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -3523,22 +3527,22 @@
         <v>19</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U1" s="27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="V1" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W1" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -3546,10 +3550,10 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
@@ -3564,13 +3568,13 @@
         <v>96</v>
       </c>
       <c r="H2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" t="s">
         <v>257</v>
       </c>
-      <c r="I2" t="s">
-        <v>258</v>
-      </c>
       <c r="J2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K2" s="5">
         <v>3966</v>
@@ -3587,13 +3591,13 @@
         <v>93</v>
       </c>
       <c r="M3" t="s">
+        <v>277</v>
+      </c>
+      <c r="N3" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="N3" s="25" t="s">
-        <v>279</v>
-      </c>
       <c r="O3" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>75</v>
@@ -3604,10 +3608,10 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O4" s="5"/>
       <c r="Q4" s="5" t="s">
@@ -3622,7 +3626,7 @@
         <v>95</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U5" s="27"/>
       <c r="V5" s="27"/>
@@ -3630,16 +3634,16 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M6" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="O6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>75</v>
@@ -3650,10 +3654,10 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U7" s="27"/>
       <c r="V7" s="27"/>
@@ -3661,22 +3665,22 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S8" t="s">
         <v>37</v>
       </c>
       <c r="T8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U8" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V8" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="W8" s="27" t="s">
         <v>286</v>
-      </c>
-      <c r="W8" s="27" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4045,13 +4049,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>49</v>
@@ -4064,10 +4068,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>49</v>
@@ -4113,28 +4117,28 @@
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>
@@ -4158,7 +4162,7 @@
         <v>8</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>18</v>
@@ -4219,16 +4223,16 @@
         <v>96</v>
       </c>
       <c r="P2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q2" t="s">
         <v>185</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>183</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>186</v>
-      </c>
-      <c r="R2" t="s">
-        <v>184</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>187</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>97</v>
@@ -4236,19 +4240,19 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="U3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W3" s="9" t="s">
         <v>101</v>
@@ -4265,7 +4269,7 @@
         <v>98</v>
       </c>
       <c r="Z4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
@@ -4401,16 +4405,16 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q12" t="s">
         <v>188</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>189</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="T12" s="5" t="s">
         <v>97</v>
@@ -4418,10 +4422,10 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W13" s="5"/>
       <c r="Y13" s="5" t="s">
@@ -4430,18 +4434,18 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z14" t="s">
         <v>192</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N15" t="s">
         <v>48</v>
@@ -4450,7 +4454,7 @@
         <v>96</v>
       </c>
       <c r="AD15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
@@ -4458,51 +4462,51 @@
         <v>95</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
       </c>
       <c r="M17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>91</v>
@@ -4515,39 +4519,39 @@
         <v>48</v>
       </c>
       <c r="AD20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="U21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U23" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U24" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4683,16 +4687,16 @@
         <v>26</v>
       </c>
       <c r="AG1" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH1" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="AI1" s="16" t="s">
-        <v>196</v>
-      </c>
       <c r="AJ1" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -4700,10 +4704,10 @@
         <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>49</v>
@@ -4718,10 +4722,10 @@
         <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J2" s="2"/>
       <c r="O2" s="5"/>
@@ -4737,7 +4741,7 @@
         <v>52</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>49</v>
@@ -4794,7 +4798,7 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>49</v>
@@ -4809,12 +4813,12 @@
         <v>48</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
@@ -4823,21 +4827,21 @@
         <v>96</v>
       </c>
       <c r="AJ8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG9" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="AG9" s="15" t="s">
+      <c r="AH9" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="AH9" s="15" t="s">
+      <c r="AI9" s="18" t="s">
         <v>199</v>
-      </c>
-      <c r="AI9" s="18" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4916,7 +4920,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5012,11 +5016,11 @@
         <v>52</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -5037,7 +5041,7 @@
         <v>63</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="W3" s="5"/>
     </row>
@@ -5046,16 +5050,16 @@
         <v>93</v>
       </c>
       <c r="S4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T4" s="5" t="s">
         <v>75</v>
       </c>
       <c r="V4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
@@ -5063,7 +5067,7 @@
         <v>98</v>
       </c>
       <c r="U5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
@@ -5077,19 +5081,19 @@
         <v>96</v>
       </c>
       <c r="H6" t="s">
+        <v>275</v>
+      </c>
+      <c r="I6" t="s">
         <v>276</v>
       </c>
-      <c r="I6" t="s">
-        <v>277</v>
-      </c>
       <c r="J6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -5106,19 +5110,19 @@
         <v>96</v>
       </c>
       <c r="H7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I7" t="s">
         <v>259</v>
       </c>
-      <c r="I7" t="s">
-        <v>260</v>
-      </c>
       <c r="J7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K7" s="5">
         <v>7014</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -5143,10 +5147,10 @@
         <v>171</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>174</v>
+        <v>303</v>
       </c>
       <c r="P9" s="10" t="s">
         <v>172</v>
@@ -5261,7 +5265,7 @@
         <v>78</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" s="10"/>
       <c r="E2" t="s">
@@ -5278,10 +5282,10 @@
         <v>78</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N2">
         <v>10</v>
@@ -5307,7 +5311,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="10"/>
       <c r="E3" t="s">
@@ -5324,10 +5328,10 @@
         <v>84</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N3">
         <v>10</v>
@@ -5354,7 +5358,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="10"/>
       <c r="E4" t="s">
@@ -5371,7 +5375,7 @@
         <v>87</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>75</v>
@@ -5430,10 +5434,10 @@
         <v>75</v>
       </c>
       <c r="U6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>101</v>
@@ -5528,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>15</v>
@@ -5566,7 +5570,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
@@ -5582,13 +5586,13 @@
         <v>96</v>
       </c>
       <c r="H2" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" t="s">
         <v>257</v>
       </c>
-      <c r="I2" t="s">
-        <v>258</v>
-      </c>
       <c r="J2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K2" s="5">
         <v>3966</v>
@@ -5604,13 +5608,13 @@
         <v>93</v>
       </c>
       <c r="O3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R3" t="s">
         <v>99</v>
@@ -5624,7 +5628,7 @@
         <v>98</v>
       </c>
       <c r="T4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
@@ -5661,7 +5665,7 @@
       </c>
       <c r="K6" s="5"/>
       <c r="O6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
@@ -5675,13 +5679,13 @@
         <v>96</v>
       </c>
       <c r="H7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I7" t="s">
         <v>264</v>
       </c>
-      <c r="I7" t="s">
-        <v>265</v>
-      </c>
       <c r="J7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K7" s="5">
         <v>5225</v>
@@ -5694,10 +5698,10 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>75</v>
@@ -5705,13 +5709,13 @@
     </row>
     <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N9" s="23" t="s">
         <v>269</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
@@ -5799,7 +5803,7 @@
         <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>75</v>
@@ -5810,10 +5814,10 @@
         <v>102</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" t="s">
@@ -5879,16 +5883,16 @@
         <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -5915,13 +5919,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>49</v>
@@ -5946,19 +5950,19 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R4" s="5"/>
       <c r="S4" s="7"/>
@@ -5968,16 +5972,16 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K5" t="s">
         <v>103</v>
@@ -5991,24 +5995,24 @@
         <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeachefr.xlsx
+++ b/src/test/resources/TestData/Osprey_EMEA/GoldOspreyemeachefr.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{62390458-DDC6-4E9F-A4F1-20647A8A352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81ADD2D9-B973-41D8-A48E-499F9F58C209}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{62390458-DDC6-4E9F-A4F1-20647A8A352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9110EE2C-8E94-47E3-8C6D-0E39CEF6265E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19200" windowHeight="9140" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,7 +964,7 @@
     <t>Mes commandes,Mes favoris,Carnet d'adresses,Informations du compte,Modes de paiement enregistrés,Crédit du magasin,Points de fidélité,Liste de cadeaux,Mes abonnements en rupture de stock,Abonnements à la newsletter,Cartes-cadeaux,Pro Deal</t>
   </si>
   <si>
-    <t>Testers.278+568@gmail.com</t>
+    <t>Testers.278+5689@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4920,7 +4920,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
